--- a/DOC/SmartCar协议.xlsx
+++ b/DOC/SmartCar协议.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/STC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/STC/SmartCar/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2180" windowWidth="28160" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1420" windowWidth="28160" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前后左右停</t>
     <rPh sb="0" eb="1">
       <t>qian'hou</t>
@@ -138,6 +134,17 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ting'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01下发
+0x02上传</t>
+    <rPh sb="4" eb="5">
+      <t>xia'f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'chuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,18 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,6 +265,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,12 +555,12 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
@@ -558,7 +568,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,16 +596,16 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -607,8 +617,8 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -620,14 +630,14 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -639,8 +649,8 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -656,8 +666,8 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -669,8 +679,8 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
